--- a/random_excels/competition_06.xlsx
+++ b/random_excels/competition_06.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7894B7-BA88-4C6A-BDF1-8362B607A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{EF7894B7-BA88-4C6A-BDF1-8362B607A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12653BF5-B821-4AFC-AAA0-D5DEC8A96331}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B1A3DC72-20B0-4704-831B-AD32AFFD5BCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B1A3DC72-20B0-4704-831B-AD32AFFD5BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>7072021.000000</t>
-  </si>
-  <si>
-    <t>6667476.000000</t>
-  </si>
-  <si>
-    <t>6352640.000000</t>
-  </si>
-  <si>
-    <t>7192280.000000</t>
-  </si>
-  <si>
-    <t>7162677.000000</t>
-  </si>
-  <si>
-    <t>6577357.000000</t>
-  </si>
-  <si>
-    <t>7312146.000000</t>
-  </si>
-  <si>
-    <t>6772370.000000</t>
-  </si>
-  <si>
-    <t>8151579.000000</t>
-  </si>
-  <si>
-    <t>7551957.000000</t>
-  </si>
-  <si>
-    <t>6563345.000000</t>
-  </si>
-  <si>
-    <t>7192541.000000</t>
-  </si>
-  <si>
-    <t>6802309.000000</t>
-  </si>
-  <si>
-    <t>6937839.000000</t>
-  </si>
-  <si>
-    <t>6817882.000000</t>
-  </si>
-  <si>
-    <t>7702067.000000</t>
-  </si>
-  <si>
-    <t>6832333.000000</t>
-  </si>
-  <si>
-    <t>7507233.000000</t>
-  </si>
-  <si>
-    <t>6982198.000000</t>
-  </si>
-  <si>
-    <t>6682731.000000</t>
-  </si>
-  <si>
-    <t>7072362.000000</t>
-  </si>
-  <si>
-    <t>7162230.000000</t>
-  </si>
-  <si>
-    <t>7057060.000000</t>
-  </si>
-  <si>
-    <t>6758064.000000</t>
-  </si>
-  <si>
-    <t>6622149.000000</t>
-  </si>
-  <si>
-    <t>7057404.000000</t>
-  </si>
-  <si>
-    <t>7521291.000000</t>
-  </si>
-  <si>
-    <t>6802079.000000</t>
-  </si>
-  <si>
-    <t>6682071.000000</t>
-  </si>
-  <si>
-    <t>6892387.000000</t>
-  </si>
-  <si>
-    <t>7041829.000000</t>
-  </si>
-  <si>
-    <t>6562683.000000</t>
-  </si>
-  <si>
-    <t>7072459.000000</t>
-  </si>
-  <si>
-    <t>6801514.000000</t>
-  </si>
-  <si>
-    <t>7176764.000000</t>
-  </si>
-  <si>
-    <t>7237459.000000</t>
-  </si>
-  <si>
-    <t>6817087.000000</t>
-  </si>
-  <si>
-    <t>6203127.000000</t>
-  </si>
-  <si>
-    <t>6757656.000000</t>
-  </si>
-  <si>
-    <t>6502461.000000</t>
-  </si>
-  <si>
-    <t>6907462.000000</t>
-  </si>
-  <si>
-    <t>6607398.000000</t>
-  </si>
-  <si>
-    <t>7281828.000000</t>
-  </si>
-  <si>
-    <t>6472555.000000</t>
-  </si>
-  <si>
-    <t>6697271.000000</t>
-  </si>
-  <si>
-    <t>7056866.000000</t>
-  </si>
-  <si>
-    <t>7596719.000000</t>
-  </si>
-  <si>
-    <t>6652042.000000</t>
-  </si>
-  <si>
-    <t>7356845.000000</t>
-  </si>
-  <si>
-    <t>7041998.000000</t>
-  </si>
-  <si>
-    <t>6578028.000000</t>
-  </si>
-  <si>
-    <t>7132044.000000</t>
-  </si>
-  <si>
-    <t>6443218.000000</t>
-  </si>
-  <si>
-    <t>6697921.000000</t>
-  </si>
-  <si>
-    <t>7042178.000000</t>
-  </si>
-  <si>
-    <t>7206977.000000</t>
-  </si>
-  <si>
-    <t>7266946.000000</t>
-  </si>
-  <si>
-    <t>6606944.000000</t>
-  </si>
-  <si>
-    <t>7071875.000000</t>
-  </si>
-  <si>
-    <t>6682895.000000</t>
-  </si>
-  <si>
-    <t>6922364.000000</t>
-  </si>
-  <si>
-    <t>6937365.000000</t>
-  </si>
-  <si>
-    <t>7148262.000000</t>
-  </si>
-  <si>
-    <t>7086799.000000</t>
-  </si>
-  <si>
-    <t>6907481.000000</t>
-  </si>
-  <si>
-    <t>7191840.000000</t>
-  </si>
-  <si>
-    <t>6428065.000000</t>
-  </si>
-  <si>
-    <t>6936475.000000</t>
-  </si>
-  <si>
-    <t>7432342.000000</t>
-  </si>
-  <si>
-    <t>6742028.000000</t>
-  </si>
-  <si>
-    <t>6772625.000000</t>
-  </si>
-  <si>
-    <t>7222358.000000</t>
-  </si>
-  <si>
-    <t>7521310.000000</t>
-  </si>
-  <si>
-    <t>6772567.000000</t>
-  </si>
-  <si>
-    <t>6967234.000000</t>
-  </si>
-  <si>
-    <t>6771893.000000</t>
-  </si>
-  <si>
-    <t>6817554.000000</t>
-  </si>
-  <si>
-    <t>6667865.000000</t>
-  </si>
-  <si>
-    <t>7116963.000000</t>
-  </si>
-  <si>
-    <t>6892619.000000</t>
-  </si>
-  <si>
-    <t>6997697.000000</t>
-  </si>
-  <si>
-    <t>6966864.000000</t>
-  </si>
-  <si>
-    <t>6981431.000000</t>
-  </si>
-  <si>
-    <t>6937988.000000</t>
-  </si>
-  <si>
-    <t>6667042.000000</t>
-  </si>
-  <si>
-    <t>7176797.000000</t>
-  </si>
-  <si>
-    <t>6862192.000000</t>
-  </si>
-  <si>
-    <t>7416679.000000</t>
-  </si>
-  <si>
-    <t>7042807.000000</t>
-  </si>
-  <si>
-    <t>7057408.000000</t>
-  </si>
-  <si>
-    <t>7192357.000000</t>
-  </si>
-  <si>
-    <t>7491752.000000</t>
-  </si>
-  <si>
-    <t>7146926.000000</t>
-  </si>
-  <si>
-    <t>7192125.000000</t>
-  </si>
-  <si>
-    <t>6518172.000000</t>
-  </si>
-  <si>
-    <t>7147809.000000</t>
-  </si>
-  <si>
-    <t>7042376.000000</t>
-  </si>
-  <si>
-    <t>7132263.000000</t>
-  </si>
-  <si>
-    <t>7057204.000000</t>
-  </si>
-  <si>
-    <t>6637821.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -456,9 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -855,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0712F-DCFD-41E3-9276-64F64EF60D96}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +583,7 @@
     <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>89</v>
       </c>
@@ -1005,11 +703,11 @@
       <c r="S2">
         <v>1735</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>7072021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>72</v>
       </c>
@@ -1067,11 +765,18 @@
       <c r="S3">
         <v>1970</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>6667476</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <f>MAX(T2:T101)</f>
+        <v>8151579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>77</v>
       </c>
@@ -1129,11 +834,18 @@
       <c r="S4">
         <v>1788</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>6352640</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <f>MIN(T2:T101)</f>
+        <v>6203127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>86</v>
       </c>
@@ -1191,11 +903,18 @@
       <c r="S5">
         <v>1996</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>7192280</v>
+      </c>
+      <c r="V5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <f>AVERAGEA(T2:T101)</f>
+        <v>6969548.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>84</v>
       </c>
@@ -1253,11 +972,18 @@
       <c r="S6">
         <v>1705</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>7162677</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6">
+        <f>STDEVA(T2:T101)</f>
+        <v>321153.88047647721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>67</v>
       </c>
@@ -1315,11 +1041,11 @@
       <c r="S7">
         <v>1840</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>6577357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>74</v>
       </c>
@@ -1377,11 +1103,11 @@
       <c r="S8">
         <v>1602</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>7312146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>85</v>
       </c>
@@ -1439,11 +1165,11 @@
       <c r="S9">
         <v>1833</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>6772370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>74</v>
       </c>
@@ -1501,11 +1227,11 @@
       <c r="S10">
         <v>1538</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>8151579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>80</v>
       </c>
@@ -1563,11 +1289,11 @@
       <c r="S11">
         <v>1764</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>7551957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>83</v>
       </c>
@@ -1625,11 +1351,11 @@
       <c r="S12">
         <v>1969</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>6563345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>86</v>
       </c>
@@ -1687,11 +1413,11 @@
       <c r="S13">
         <v>1965</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>7192541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>75</v>
       </c>
@@ -1749,11 +1475,11 @@
       <c r="S14">
         <v>1664</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>6802309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>81</v>
       </c>
@@ -1811,11 +1537,11 @@
       <c r="S15">
         <v>1806</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>6937839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>76</v>
       </c>
@@ -1873,8 +1599,8 @@
       <c r="S16">
         <v>1940</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>6817882</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1935,8 +1661,8 @@
       <c r="S17">
         <v>1873</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>7702067</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1997,8 +1723,8 @@
       <c r="S18">
         <v>1927</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>6832333</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2059,8 +1785,8 @@
       <c r="S19">
         <v>1851</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>7507233</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2121,8 +1847,8 @@
       <c r="S20">
         <v>1805</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>6982198</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2183,8 +1909,8 @@
       <c r="S21">
         <v>1950</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>6682731</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2245,8 +1971,8 @@
       <c r="S22">
         <v>1486</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>7072362</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2307,8 +2033,8 @@
       <c r="S23">
         <v>1772</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>7162230</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2369,8 +2095,8 @@
       <c r="S24">
         <v>1716</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>7057060</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2431,8 +2157,8 @@
       <c r="S25">
         <v>1855</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>6758064</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2493,8 +2219,8 @@
       <c r="S26">
         <v>1600</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>6622149</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2555,8 +2281,8 @@
       <c r="S27">
         <v>1682</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>7057404</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2617,8 +2343,8 @@
       <c r="S28">
         <v>1644</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>7521291</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2679,8 +2405,8 @@
       <c r="S29">
         <v>1663</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>6802079</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2741,8 +2467,8 @@
       <c r="S30">
         <v>1856</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>6682071</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2803,8 +2529,8 @@
       <c r="S31">
         <v>1697</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>6892387</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2865,8 +2591,8 @@
       <c r="S32">
         <v>1824</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>7041829</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2927,8 +2653,8 @@
       <c r="S33">
         <v>1978</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>6562683</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -2989,8 +2715,8 @@
       <c r="S34">
         <v>1840</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>7072459</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3051,8 +2777,8 @@
       <c r="S35">
         <v>1774</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>6801514</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3113,8 +2839,8 @@
       <c r="S36">
         <v>1704</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>7176764</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3175,8 +2901,8 @@
       <c r="S37">
         <v>1818</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>7237459</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3237,8 +2963,8 @@
       <c r="S38">
         <v>1598</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>6817087</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3299,8 +3025,8 @@
       <c r="S39">
         <v>1810</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>6203127</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3361,8 +3087,8 @@
       <c r="S40">
         <v>1791</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>6757656</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3423,8 +3149,8 @@
       <c r="S41">
         <v>1867</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>6502461</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3485,8 +3211,8 @@
       <c r="S42">
         <v>1863</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>6907462</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3547,8 +3273,8 @@
       <c r="S43">
         <v>1953</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>6607398</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3609,8 +3335,8 @@
       <c r="S44">
         <v>1757</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>7281828</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3671,8 +3397,8 @@
       <c r="S45">
         <v>1961</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>6472555</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3733,8 +3459,8 @@
       <c r="S46">
         <v>1745</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>6697271</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3795,8 +3521,8 @@
       <c r="S47">
         <v>1618</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>7056866</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3857,8 +3583,8 @@
       <c r="S48">
         <v>1648</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>7596719</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3919,8 +3645,8 @@
       <c r="S49">
         <v>1635</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>6652042</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -3981,8 +3707,8 @@
       <c r="S50">
         <v>1744</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>7356845</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4043,8 +3769,8 @@
       <c r="S51">
         <v>1886</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>7041998</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4105,8 +3831,8 @@
       <c r="S52">
         <v>2056</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>6578028</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4167,8 +3893,8 @@
       <c r="S53">
         <v>1649</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>7132044</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4229,8 +3955,8 @@
       <c r="S54">
         <v>1853</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>6443218</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4291,8 +4017,8 @@
       <c r="S55">
         <v>1959</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>6697921</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4353,8 +4079,8 @@
       <c r="S56">
         <v>1813</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>7042178</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4415,8 +4141,8 @@
       <c r="S57">
         <v>1751</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>7206977</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4477,8 +4203,8 @@
       <c r="S58">
         <v>1722</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>7266946</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4539,8 +4265,8 @@
       <c r="S59">
         <v>1746</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>6606944</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4601,8 +4327,8 @@
       <c r="S60">
         <v>1562</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>7071875</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4663,8 +4389,8 @@
       <c r="S61">
         <v>1860</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>6682895</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4725,8 +4451,8 @@
       <c r="S62">
         <v>1882</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>6922364</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4787,8 +4513,8 @@
       <c r="S63">
         <v>1695</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>6937365</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4849,8 +4575,8 @@
       <c r="S64">
         <v>1927</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>7148262</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4911,8 +4637,8 @@
       <c r="S65">
         <v>1706</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>7086799</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4973,8 +4699,8 @@
       <c r="S66">
         <v>1694</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>6907481</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5035,8 +4761,8 @@
       <c r="S67">
         <v>1650</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>7191840</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5097,8 +4823,8 @@
       <c r="S68">
         <v>1920</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>6428065</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5159,8 +4885,8 @@
       <c r="S69">
         <v>1644</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>6936475</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5221,8 +4947,8 @@
       <c r="S70">
         <v>1806</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>7432342</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5283,8 +5009,8 @@
       <c r="S71">
         <v>1698</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>6742028</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5345,8 +5071,8 @@
       <c r="S72">
         <v>1817</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>6772625</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5407,8 +5133,8 @@
       <c r="S73">
         <v>1689</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>7222358</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5469,8 +5195,8 @@
       <c r="S74">
         <v>1456</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>7521310</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5531,8 +5257,8 @@
       <c r="S75">
         <v>1888</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>6772567</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5593,8 +5319,8 @@
       <c r="S76">
         <v>1642</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>6967234</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5655,8 +5381,8 @@
       <c r="S77">
         <v>1668</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>6771893</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5717,8 +5443,8 @@
       <c r="S78">
         <v>1847</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>6817554</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5779,8 +5505,8 @@
       <c r="S79">
         <v>1851</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>6667865</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5841,8 +5567,8 @@
       <c r="S80">
         <v>1763</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>7116963</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5903,8 +5629,8 @@
       <c r="S81">
         <v>1870</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>6892619</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5965,8 +5691,8 @@
       <c r="S82">
         <v>1901</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>6997697</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6027,8 +5753,8 @@
       <c r="S83">
         <v>1693</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>6966864</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6089,8 +5815,8 @@
       <c r="S84">
         <v>1650</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>6981431</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6151,8 +5877,8 @@
       <c r="S85">
         <v>1966</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>6937988</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6213,8 +5939,8 @@
       <c r="S86">
         <v>1714</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>6667042</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6275,8 +6001,8 @@
       <c r="S87">
         <v>1572</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>7176797</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6337,8 +6063,8 @@
       <c r="S88">
         <v>1820</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>6862192</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6399,8 +6125,8 @@
       <c r="S89">
         <v>1617</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>7416679</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6461,8 +6187,8 @@
       <c r="S90">
         <v>1809</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>7042807</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6523,8 +6249,8 @@
       <c r="S91">
         <v>1937</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>7057408</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6585,8 +6311,8 @@
       <c r="S92">
         <v>1856</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>7192357</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6647,8 +6373,8 @@
       <c r="S93">
         <v>1678</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>7491752</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6709,8 +6435,8 @@
       <c r="S94">
         <v>1755</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>7146926</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6771,8 +6497,8 @@
       <c r="S95">
         <v>1652</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>7192125</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6833,8 +6559,8 @@
       <c r="S96">
         <v>1904</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>6518172</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6895,8 +6621,8 @@
       <c r="S97">
         <v>1869</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>7147809</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6957,8 +6683,8 @@
       <c r="S98">
         <v>1894</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>7042376</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7019,8 +6745,8 @@
       <c r="S99">
         <v>1786</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>7132263</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7081,8 +6807,8 @@
       <c r="S100">
         <v>1825</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>7057204</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7143,8 +6869,8 @@
       <c r="S101">
         <v>1806</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>6637821</v>
       </c>
     </row>
   </sheetData>
@@ -7152,557 +6878,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A9F849-AEBB-42A6-8828-F0355DA6A5F8}">
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>7072021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>6667476</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <f>MAX(A2:A101)</f>
-        <v>8151579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>6352640</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4">
-        <f>MIN(A2:A101)</f>
-        <v>6203127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>7192280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGEA(A2:A101)</f>
-        <v>6969548.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>7162677</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6">
-        <f>STDEVA(A2:A101)</f>
-        <v>321153.88047647721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6577357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7312146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>6772370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8151579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>7551957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>6563345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>7192541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>6802309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>6937839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>6817882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>7702067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>6832333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>7507233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>6982198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>6682731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>7072362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>7162230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>7057060</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>6758064</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>6622149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>7057404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>7521291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>6802079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>6682071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>6892387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>7041829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>6562683</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>7072459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>6801514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>7176764</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>7237459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>6817087</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>6203127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>6757656</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>6502461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>6907462</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>6607398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>7281828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>6472555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>6697271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>7056866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>7596719</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>6652042</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>7356845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>7041998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>6578028</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>7132044</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>6443218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>6697921</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>7042178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>7206977</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>7266946</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>6606944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>7071875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>6682895</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>6922364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>6937365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>7148262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>7086799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>6907481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>7191840</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>6428065</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>6936475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>7432342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>6742028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>6772625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>7222358</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>7521310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>6772567</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>6967234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>6771893</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>6817554</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>6667865</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>7116963</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>6892619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>6997697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>6966864</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>6981431</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>6937988</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>6667042</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>7176797</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>6862192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>7416679</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>7042807</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>7057408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>7192357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>7491752</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>7146926</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>7192125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>6518172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>7147809</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>7042376</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>7132263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>7057204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>6637821</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
